--- a/biology/Botanique/Trachycarpus/Trachycarpus.xlsx
+++ b/biology/Botanique/Trachycarpus/Trachycarpus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trachycarpus est un genre de plantes de la famille des Arécacées (palmiers). Le nom vient du grec trachys qui signifie rugueux, et de carpos qui signifie fruit.
 Il fait partie de la sous-famille des Coryphoideae, de la tribu des Trachycarpeae et de la sous-tribu des Rhapidinae.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La distribution naturelle des espèces de Trachycarpus va des régions montagneuses du nord de l’Inde, au Népal, jusqu’au nord de la Thaïlande et en Chine. Dans leur habitat naturel, certaines espèces vivent dans des forêts de montagne jusqu’à 2500 mètres d’altitude, et sont régulièrement couvertes de neige en hiver.
 Trachycarpus fortunei est le représentant du genre le plus connu. Il se rencontre très fréquemment dans les jardins en Europe et il est abondant dans les parcs et jardins en France. En France, il est parfois subspontané quand les conditions lui sont favorables. En particulier dans les Pyrénées où il peut coloniser les berges des cours d'eau. On le retrouve également à l'état sauvage dans la région montagneuse du Tessin en Suisse, où il est subspontané et classé comme espèce invasive d'après cps-skew[Quoi ?].
@@ -544,12 +558,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Famille des Arecaceae
 Sous-famille des Coryphoideae
 Tribu des Trachycarpeae
-Sous-tribu des Rhapidinae[1]
+Sous-tribu des Rhapidinae
 Il partage cette sous-tribu avec les genres suivants : Chamaerops, Guihaia, Rhapidophyllum, Maxburretia, Rhapis.
 </t>
         </is>
@@ -579,7 +595,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les espèces de Trachycarpus sont des palmiers dïoïques, de taille moyenne, très résistants. Les feuilles sont palmées, robustes, de couleur vert foncé à vert clair, parfois bleutées.
 Le stipe des espèces de Trachycarpus a une hauteur qui va de quelques dizaines de centimètres de hauteur pour Trachycarpus nanus à plus de douze mètres pour Trachycarpus takil. Il peut devenir nu avec l’âge, mais il est recouvert le plus souvent d’une couche plus ou moins épaisse de fibres entrelacées qui forment un crin marron.
@@ -614,9 +632,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Trachycarpus comprend dix espèces d'après Plants of the World Online des jardins botaniques royaux de Kew[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Trachycarpus comprend dix espèces d'après Plants of the World Online des jardins botaniques royaux de Kew :
 Trachycarpus fortunei (Hook.) H.Wendl. (1861).
 Trachycarpus geminisectus Spanner, Gibbons (2003).
 Trachycarpus latisectus Spanner, Noltie &amp; Gibbons (1997).
@@ -657,7 +677,9 @@
           <t>Résistance au froid des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Les chiffres sont donnés à titre indicatif. Ils donnent la résistance maximale au froid dans de bonnes conditions : froid bref et air sec.
 Trachycarpus fortunei : -18 °C
